--- a/Report/UserMapping.xlsx
+++ b/Report/UserMapping.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BC8221-D666-43AE-816B-08B04659E94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0E2864-3690-4BD6-9C1C-D94494F25823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="117">
   <si>
     <t>Major Features</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Moderate reports</t>
   </si>
   <si>
-    <t>Buy coins by VNPay</t>
-  </si>
-  <si>
     <t>View goods</t>
   </si>
   <si>
@@ -83,21 +80,12 @@
     <t>Manage user accounts</t>
   </si>
   <si>
-    <t>View statistics</t>
-  </si>
-  <si>
-    <t>Get vouchers</t>
-  </si>
-  <si>
     <t>Use Cases</t>
   </si>
   <si>
     <t>Authentication</t>
   </si>
   <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>View transaction</t>
   </si>
   <si>
@@ -146,9 +134,6 @@
     <t>Reject / Approve a post</t>
   </si>
   <si>
-    <t>Buy coins by VNPAY</t>
-  </si>
-  <si>
     <t>Input sell post id</t>
   </si>
   <si>
@@ -158,33 +143,12 @@
     <t>View a report approved / need approved</t>
   </si>
   <si>
-    <t>Reject / Approve ( send to admin ) a post</t>
-  </si>
-  <si>
     <t>Create a moderator account</t>
   </si>
   <si>
     <t>Ban an account</t>
   </si>
   <si>
-    <t>View statistic about number of posts</t>
-  </si>
-  <si>
-    <t>View statistic about number of reports</t>
-  </si>
-  <si>
-    <t>View statistic about number of customer's accounts</t>
-  </si>
-  <si>
-    <t>View statistic about number of transactions</t>
-  </si>
-  <si>
-    <t>Use points to gain a voucher</t>
-  </si>
-  <si>
-    <t>Voucher use to discount a post's price</t>
-  </si>
-  <si>
     <t>Functional Requirements - 1</t>
   </si>
   <si>
@@ -263,15 +227,6 @@
     <t>UC19</t>
   </si>
   <si>
-    <t>UC20</t>
-  </si>
-  <si>
-    <t>UC21</t>
-  </si>
-  <si>
-    <t>UC22</t>
-  </si>
-  <si>
     <t>Log in with Google</t>
   </si>
   <si>
@@ -326,27 +281,12 @@
     <t>FE12</t>
   </si>
   <si>
-    <t>FE13</t>
-  </si>
-  <si>
-    <t>FE14</t>
-  </si>
-  <si>
-    <t>FE15</t>
-  </si>
-  <si>
     <t>View Goods</t>
   </si>
   <si>
     <t>Search Goods</t>
   </si>
   <si>
-    <t>Statistic</t>
-  </si>
-  <si>
-    <t>Voucher</t>
-  </si>
-  <si>
     <t>View details information about a goods</t>
   </si>
   <si>
@@ -431,32 +371,14 @@
     <t>FR26</t>
   </si>
   <si>
-    <t>FR27</t>
-  </si>
-  <si>
-    <t>FR28</t>
-  </si>
-  <si>
-    <t>FR29</t>
-  </si>
-  <si>
-    <t>FR30</t>
-  </si>
-  <si>
-    <t>FR31</t>
-  </si>
-  <si>
-    <t>FR32</t>
-  </si>
-  <si>
-    <t>FR33</t>
+    <t>Reject / Approve ( send to admin ) a report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +425,20 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -623,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,14 +573,27 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -679,6 +628,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW48"/>
+  <dimension ref="A1:AW45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:G48"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,215 +951,175 @@
     <col min="30" max="50" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-    </row>
-    <row r="2" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+    </row>
+    <row r="2" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
       <c r="B2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="S2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="T2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="U2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="V2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="W2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="X2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="Y2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="Z2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="AA2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="AB2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="AI2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="AK2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="AL2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="AM2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="W2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR2" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW2" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B3" s="37"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1194,10 +1131,10 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="2"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -1220,22 +1157,12 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B4" s="37"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1248,10 +1175,10 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="37"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="2"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -1273,22 +1200,12 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B5" s="37"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1305,7 +1222,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="2"/>
+      <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -1326,20 +1243,10 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -1359,7 +1266,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="2"/>
+      <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -1379,20 +1286,10 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1409,7 +1306,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="2"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1420,32 +1317,22 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="2"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1475,30 +1362,20 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
-      <c r="AH8" s="2"/>
+      <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1520,13 +1397,13 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
@@ -1538,20 +1415,10 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1591,20 +1458,10 @@
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1639,25 +1496,15 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
+      <c r="AI11" s="2"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AM11" s="3"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1688,29 +1535,19 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1743,27 +1580,17 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
+      <c r="AG13" s="2"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
-      <c r="AK13" s="2"/>
+      <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1797,26 +1624,16 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
+      <c r="AH14" s="2"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
-      <c r="AL14" s="2"/>
+      <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1833,10 +1650,10 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="2"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="2"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -1856,20 +1673,10 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1886,10 +1693,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="2"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="2"/>
+      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -1909,20 +1716,10 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1940,9 +1737,9 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -1953,7 +1750,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="2"/>
+      <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
@@ -1962,20 +1759,10 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1997,8 +1784,8 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
@@ -2015,20 +1802,10 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2052,10 +1829,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-      <c r="X19" s="2"/>
+      <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2068,20 +1845,10 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2110,31 +1877,21 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2172,963 +1929,903 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="36"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="36"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="36"/>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="36"/>
+      <c r="AU23" s="36"/>
+      <c r="AV23" s="36"/>
+      <c r="AW23" s="36"/>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="36"/>
+      <c r="AT24" s="36"/>
+      <c r="AU24" s="36"/>
+      <c r="AV24" s="36"/>
+      <c r="AW24" s="36"/>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="I26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="22"/>
+      <c r="P26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="22"/>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y27" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="25"/>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y28" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="25"/>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y29" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="19"/>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y30" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="19"/>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="19"/>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="19"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="J33" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="19"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="J34" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q34" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="19"/>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="I26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
-      <c r="P26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="19"/>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="J35" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="19"/>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y36" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="19"/>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q37" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y37" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="19"/>
+    </row>
+    <row r="38" spans="2:32" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y38" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="19"/>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y27" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="16"/>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
+      <c r="C39" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="19"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="16"/>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
+      <c r="C40" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y29" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="16"/>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q30" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="16"/>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q31" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y31" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="16"/>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q32" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="16"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q33" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y33" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="16"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q34" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y34" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="16"/>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J35" s="20" t="s">
+      <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q35" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y35" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="16"/>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q36" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y36" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="16"/>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q37" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y37" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="16"/>
-    </row>
-    <row r="38" spans="2:32" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q38" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y38" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="16"/>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q39" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y39" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="16"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q40" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y40" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="16"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="22"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q41" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y41" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="16"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3137,71 +2834,45 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q42" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y42" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="16"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
-        <v>77</v>
+      <c r="B43" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="16"/>
-      <c r="P43" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q43" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="10"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B44" s="9" t="s">
-        <v>78</v>
+      <c r="B44" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -3209,62 +2880,27 @@
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
-        <v>79</v>
+      <c r="B45" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B46" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B47" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="58">
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="R1:AW1"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="R1:AM1"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
@@ -3278,14 +2914,6 @@
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
     <mergeCell ref="J27:N27"/>
     <mergeCell ref="J28:N28"/>
     <mergeCell ref="J29:N29"/>
@@ -3294,18 +2922,10 @@
     <mergeCell ref="J32:N32"/>
     <mergeCell ref="J33:N33"/>
     <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N35"/>
     <mergeCell ref="J36:N36"/>
     <mergeCell ref="J37:N37"/>
     <mergeCell ref="J38:N38"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
     <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="Y30:AF30"/>
     <mergeCell ref="Y31:AF31"/>
     <mergeCell ref="Q30:V30"/>
     <mergeCell ref="Q31:V31"/>
@@ -3313,16 +2933,15 @@
     <mergeCell ref="Q33:V33"/>
     <mergeCell ref="Y32:AF32"/>
     <mergeCell ref="Y33:AF33"/>
-    <mergeCell ref="Q43:V43"/>
+    <mergeCell ref="Y30:AF30"/>
     <mergeCell ref="Q34:V34"/>
     <mergeCell ref="Q35:V35"/>
     <mergeCell ref="Q36:V36"/>
     <mergeCell ref="Q37:V37"/>
     <mergeCell ref="Q38:V38"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="Y28:AF28"/>
     <mergeCell ref="Y39:AF39"/>
-    <mergeCell ref="Y40:AF40"/>
-    <mergeCell ref="Y41:AF41"/>
-    <mergeCell ref="Y42:AF42"/>
     <mergeCell ref="I26:N26"/>
     <mergeCell ref="P26:V26"/>
     <mergeCell ref="X26:AF26"/>
@@ -3332,9 +2951,6 @@
     <mergeCell ref="Y37:AF37"/>
     <mergeCell ref="Y38:AF38"/>
     <mergeCell ref="Q39:V39"/>
-    <mergeCell ref="Q40:V40"/>
-    <mergeCell ref="Q41:V41"/>
-    <mergeCell ref="Q42:V42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report/UserMapping.xlsx
+++ b/Report/UserMapping.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0E2864-3690-4BD6-9C1C-D94494F25823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7736F1-3BD4-4A5D-B0B3-0CCCF8B30958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
   <si>
     <t>Major Features</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Make transactions</t>
   </si>
   <si>
-    <t>Input post id</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
   </si>
   <si>
     <t>UC18</t>
-  </si>
-  <si>
-    <t>UC19</t>
   </si>
   <si>
     <t>Log in with Google</t>
@@ -378,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,13 +419,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -559,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,20 +568,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -622,18 +607,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -643,19 +616,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW45"/>
+  <dimension ref="A1:AW44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ33" sqref="AJ33"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AL20" sqref="AL20:AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,174 +920,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
     </row>
     <row r="2" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="N2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AC2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AE2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AF2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AG2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AH2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AI2" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AK2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AL2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AM2" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="B3" s="16"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1133,7 +1101,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="37"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -1160,9 +1128,9 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="37"/>
+        <v>49</v>
+      </c>
+      <c r="B4" s="16"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1176,7 +1144,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="37"/>
+      <c r="P4" s="31"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1203,9 +1171,9 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="B5" s="16"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1219,7 +1187,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1246,7 +1214,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -1263,7 +1231,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="2"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1289,7 +1257,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1306,7 +1274,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="32"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1332,7 +1300,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1375,7 +1343,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1418,7 +1386,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1449,8 +1417,8 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
@@ -1461,7 +1429,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1504,7 +1472,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1535,9 +1503,9 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="2"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
@@ -1547,7 +1515,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1580,8 +1548,8 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
@@ -1590,14 +1558,14 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1607,7 +1575,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="2"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1624,7 +1592,7 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-      <c r="AH14" s="2"/>
+      <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
@@ -1633,15 +1601,15 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1676,7 +1644,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1684,8 +1652,8 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1693,10 +1661,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -1719,7 +1687,7 @@
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1728,8 +1696,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1737,10 +1705,10 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="2"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -1762,7 +1730,7 @@
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1772,8 +1740,8 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1783,13 +1751,13 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="2"/>
+      <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
@@ -1805,7 +1773,7 @@
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1816,8 +1784,8 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1831,8 +1799,8 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -1841,14 +1809,14 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1860,8 +1828,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1884,207 +1852,164 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="36"/>
-      <c r="AS22" s="36"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="36"/>
-      <c r="AW22" s="36"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="36"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
-      <c r="AS24" s="36"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="36"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -2100,7 +2025,7 @@
       <c r="M26" s="21"/>
       <c r="N26" s="22"/>
       <c r="P26" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
@@ -2110,7 +2035,7 @@
       <c r="V26" s="22"/>
       <c r="W26" s="9"/>
       <c r="X26" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
@@ -2123,10 +2048,10 @@
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -2134,10 +2059,10 @@
       <c r="G27" s="25"/>
       <c r="H27" s="4"/>
       <c r="I27" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
@@ -2145,10 +2070,10 @@
       <c r="N27" s="25"/>
       <c r="O27" s="4"/>
       <c r="P27" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q27" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R27" s="24"/>
       <c r="S27" s="24"/>
@@ -2157,10 +2082,10 @@
       <c r="V27" s="25"/>
       <c r="W27" s="9"/>
       <c r="X27" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y27" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z27" s="24"/>
       <c r="AA27" s="24"/>
@@ -2172,10 +2097,10 @@
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -2183,10 +2108,10 @@
       <c r="G28" s="25"/>
       <c r="H28" s="4"/>
       <c r="I28" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
@@ -2194,10 +2119,10 @@
       <c r="N28" s="25"/>
       <c r="O28" s="4"/>
       <c r="P28" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q28" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
@@ -2206,10 +2131,10 @@
       <c r="V28" s="25"/>
       <c r="W28" s="9"/>
       <c r="X28" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Y28" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z28" s="24"/>
       <c r="AA28" s="24"/>
@@ -2221,10 +2146,10 @@
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -2232,10 +2157,10 @@
       <c r="G29" s="25"/>
       <c r="H29" s="4"/>
       <c r="I29" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
@@ -2243,10 +2168,10 @@
       <c r="N29" s="25"/>
       <c r="O29" s="4"/>
       <c r="P29" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q29" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R29" s="24"/>
       <c r="S29" s="24"/>
@@ -2255,10 +2180,10 @@
       <c r="V29" s="25"/>
       <c r="W29" s="9"/>
       <c r="X29" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y29" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
@@ -2270,7 +2195,7 @@
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>3</v>
@@ -2281,10 +2206,10 @@
       <c r="G30" s="25"/>
       <c r="H30" s="4"/>
       <c r="I30" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -2292,10 +2217,10 @@
       <c r="N30" s="25"/>
       <c r="O30" s="4"/>
       <c r="P30" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q30" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
@@ -2304,10 +2229,10 @@
       <c r="V30" s="25"/>
       <c r="W30" s="9"/>
       <c r="X30" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Y30" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z30" s="18"/>
       <c r="AA30" s="18"/>
@@ -2319,7 +2244,7 @@
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>11</v>
@@ -2330,10 +2255,10 @@
       <c r="G31" s="25"/>
       <c r="H31" s="4"/>
       <c r="I31" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
@@ -2341,10 +2266,10 @@
       <c r="N31" s="25"/>
       <c r="O31" s="4"/>
       <c r="P31" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q31" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
@@ -2353,10 +2278,10 @@
       <c r="V31" s="25"/>
       <c r="W31" s="9"/>
       <c r="X31" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Y31" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z31" s="18"/>
       <c r="AA31" s="18"/>
@@ -2368,7 +2293,7 @@
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>12</v>
@@ -2379,10 +2304,10 @@
       <c r="G32" s="25"/>
       <c r="H32" s="4"/>
       <c r="I32" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -2390,10 +2315,10 @@
       <c r="N32" s="25"/>
       <c r="O32" s="4"/>
       <c r="P32" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q32" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
@@ -2402,10 +2327,10 @@
       <c r="V32" s="25"/>
       <c r="W32" s="9"/>
       <c r="X32" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y32" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z32" s="18"/>
       <c r="AA32" s="18"/>
@@ -2417,7 +2342,7 @@
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>8</v>
@@ -2428,10 +2353,10 @@
       <c r="G33" s="25"/>
       <c r="H33" s="4"/>
       <c r="I33" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
@@ -2439,10 +2364,10 @@
       <c r="N33" s="25"/>
       <c r="O33" s="4"/>
       <c r="P33" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q33" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R33" s="24"/>
       <c r="S33" s="24"/>
@@ -2451,10 +2376,10 @@
       <c r="V33" s="25"/>
       <c r="W33" s="9"/>
       <c r="X33" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Y33" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z33" s="18"/>
       <c r="AA33" s="18"/>
@@ -2466,7 +2391,7 @@
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>13</v>
@@ -2477,21 +2402,21 @@
       <c r="G34" s="25"/>
       <c r="H34" s="4"/>
       <c r="I34" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="35"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="4"/>
       <c r="P34" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q34" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -2500,10 +2425,10 @@
       <c r="V34" s="25"/>
       <c r="W34" s="9"/>
       <c r="X34" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y34" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z34" s="18"/>
       <c r="AA34" s="18"/>
@@ -2515,10 +2440,10 @@
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -2526,21 +2451,21 @@
       <c r="G35" s="25"/>
       <c r="H35" s="4"/>
       <c r="I35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="32"/>
+        <v>80</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="14"/>
       <c r="O35" s="4"/>
       <c r="P35" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q35" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R35" s="24"/>
       <c r="S35" s="24"/>
@@ -2549,10 +2474,10 @@
       <c r="V35" s="25"/>
       <c r="W35" s="9"/>
       <c r="X35" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Y35" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z35" s="18"/>
       <c r="AA35" s="18"/>
@@ -2564,7 +2489,7 @@
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>14</v>
@@ -2575,21 +2500,21 @@
       <c r="G36" s="25"/>
       <c r="H36" s="4"/>
       <c r="I36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="35"/>
+        <v>81</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="28"/>
       <c r="O36" s="4"/>
       <c r="P36" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q36" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -2598,10 +2523,10 @@
       <c r="V36" s="25"/>
       <c r="W36" s="9"/>
       <c r="X36" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y36" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z36" s="18"/>
       <c r="AA36" s="18"/>
@@ -2613,7 +2538,7 @@
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>15</v>
@@ -2624,21 +2549,21 @@
       <c r="G37" s="25"/>
       <c r="H37" s="4"/>
       <c r="I37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J37" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="35"/>
+        <v>82</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="4"/>
       <c r="P37" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q37" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R37" s="24"/>
       <c r="S37" s="24"/>
@@ -2647,10 +2572,10 @@
       <c r="V37" s="25"/>
       <c r="W37" s="9"/>
       <c r="X37" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y37" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Z37" s="18"/>
       <c r="AA37" s="18"/>
@@ -2662,10 +2587,10 @@
     </row>
     <row r="38" spans="2:32" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -2673,10 +2598,10 @@
       <c r="G38" s="25"/>
       <c r="H38" s="4"/>
       <c r="I38" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -2684,10 +2609,10 @@
       <c r="N38" s="25"/>
       <c r="O38" s="4"/>
       <c r="P38" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q38" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R38" s="24"/>
       <c r="S38" s="24"/>
@@ -2696,10 +2621,10 @@
       <c r="V38" s="25"/>
       <c r="W38" s="9"/>
       <c r="X38" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y38" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z38" s="18"/>
       <c r="AA38" s="18"/>
@@ -2711,10 +2636,10 @@
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -2723,10 +2648,10 @@
       <c r="H39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q39" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R39" s="24"/>
       <c r="S39" s="24"/>
@@ -2735,10 +2660,10 @@
       <c r="V39" s="25"/>
       <c r="W39" s="9"/>
       <c r="X39" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y39" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z39" s="18"/>
       <c r="AA39" s="18"/>
@@ -2750,10 +2675,10 @@
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -2779,16 +2704,16 @@
       <c r="AF40" s="9"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
+      <c r="B41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -2817,15 +2742,15 @@
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -2847,15 +2772,15 @@
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
@@ -2869,50 +2794,37 @@
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16"/>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B45" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="62">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="R1:AM1"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="Y28:AF28"/>
     <mergeCell ref="Y27:AF27"/>
     <mergeCell ref="Q28:V28"/>
     <mergeCell ref="Q27:V27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="R1:AM1"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C39:G39"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="J27:N27"/>
     <mergeCell ref="J28:N28"/>
@@ -2925,8 +2837,10 @@
     <mergeCell ref="J36:N36"/>
     <mergeCell ref="J37:N37"/>
     <mergeCell ref="J38:N38"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
     <mergeCell ref="Q30:V30"/>
     <mergeCell ref="Q31:V31"/>
     <mergeCell ref="Q32:V32"/>
@@ -2934,13 +2848,6 @@
     <mergeCell ref="Y32:AF32"/>
     <mergeCell ref="Y33:AF33"/>
     <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="Q34:V34"/>
-    <mergeCell ref="Q35:V35"/>
-    <mergeCell ref="Q36:V36"/>
-    <mergeCell ref="Q37:V37"/>
-    <mergeCell ref="Q38:V38"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="Y28:AF28"/>
     <mergeCell ref="Y39:AF39"/>
     <mergeCell ref="I26:N26"/>
     <mergeCell ref="P26:V26"/>
@@ -2951,6 +2858,16 @@
     <mergeCell ref="Y37:AF37"/>
     <mergeCell ref="Y38:AF38"/>
     <mergeCell ref="Q39:V39"/>
+    <mergeCell ref="Q34:V34"/>
+    <mergeCell ref="Q35:V35"/>
+    <mergeCell ref="Q36:V36"/>
+    <mergeCell ref="Q37:V37"/>
+    <mergeCell ref="Q38:V38"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
